--- a/rosters/2023/Detroit/Detroit.xlsx
+++ b/rosters/2023/Detroit/Detroit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>No.</t>
   </si>
@@ -49,15 +49,12 @@
     <t>Bojan Bogdanović</t>
   </si>
   <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
     <t>Killian Hayes</t>
   </si>
   <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
@@ -67,87 +64,84 @@
     <t>Isaiah Stewart</t>
   </si>
   <si>
-    <t>Kevin Knox</t>
+    <t>Alec Burks</t>
   </si>
   <si>
     <t>Cory Joseph</t>
   </si>
   <si>
-    <t>Alec Burks</t>
+    <t>Isaiah Livers</t>
   </si>
   <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
     <t>Rodney McGruder</t>
   </si>
   <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
     <t>Jared Rhoden (TW)</t>
   </si>
   <si>
     <t>Buddy Boeheim (TW)</t>
   </si>
   <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
     <t>April 18, 1989</t>
   </si>
   <si>
+    <t>February 13, 2002</t>
+  </si>
+  <si>
     <t>July 27, 2001</t>
   </si>
   <si>
-    <t>February 13, 2002</t>
-  </si>
-  <si>
-    <t>April 9, 1999</t>
-  </si>
-  <si>
     <t>November 18, 2003</t>
   </si>
   <si>
@@ -157,36 +151,36 @@
     <t>May 22, 2001</t>
   </si>
   <si>
-    <t>August 11, 1999</t>
+    <t>July 20, 1991</t>
   </si>
   <si>
     <t>August 20, 1991</t>
   </si>
   <si>
-    <t>July 20, 1991</t>
+    <t>July 28, 1998</t>
   </si>
   <si>
     <t>March 14, 1999</t>
   </si>
   <si>
-    <t>July 28, 1998</t>
-  </si>
-  <si>
     <t>July 29, 1991</t>
   </si>
   <si>
+    <t>April 10, 1994</t>
+  </si>
+  <si>
     <t>September 25, 2001</t>
   </si>
   <si>
-    <t>April 10, 1994</t>
-  </si>
-  <si>
     <t>August 27, 1999</t>
   </si>
   <si>
     <t>November 11, 1999</t>
   </si>
   <si>
+    <t>March 31, 2001</t>
+  </si>
+  <si>
     <t>ba</t>
   </si>
   <si>
@@ -199,12 +193,12 @@
     <t>8</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>Purdue</t>
   </si>
   <si>
-    <t>Villanova</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
@@ -232,18 +223,18 @@
     <t>Washington</t>
   </si>
   <si>
+    <t>Colorado</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Colorado</t>
+    <t>Michigan</t>
   </si>
   <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>Kansas State</t>
   </si>
   <si>
@@ -259,15 +250,12 @@
     <t>https://www.basketball-reference.com/players/b/bogdabo02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/i/iveyja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hayeski01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/i/iveyja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/beysa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/durenja01.html</t>
   </si>
   <si>
@@ -277,34 +265,34 @@
     <t>https://www.basketball-reference.com/players/s/stewais01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
+    <t>https://www.basketball-reference.com/players/b/burksal01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/josepco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/burksal01.html</t>
+    <t>https://www.basketball-reference.com/players/l/liveris01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/baglema01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/liveris01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mcgruro01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/noelne01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/cunnica01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/noelne01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/rhodeja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/boehebu01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
   </si>
 </sst>
 </file>
@@ -675,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,25 +712,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -750,31 +738,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -782,34 +773,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -817,34 +805,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -852,34 +840,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -887,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -896,25 +884,25 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -922,34 +910,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -957,34 +945,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -992,34 +980,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1027,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1036,25 +1024,25 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1062,34 +1050,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
       <c r="F12">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1097,34 +1085,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
         <v>58</v>
       </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1132,34 +1120,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1167,34 +1155,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1202,43 +1190,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1249,57 +1234,22 @@
         <v>38</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18">
-        <v>205</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1270,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Detroit/Detroit.xlsx
+++ b/rosters/2023/Detroit/Detroit.xlsx
@@ -85,15 +85,15 @@
     <t>Cade Cunningham</t>
   </si>
   <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
     <t>Jared Rhoden (TW)</t>
   </si>
   <si>
     <t>Buddy Boeheim (TW)</t>
   </si>
   <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -172,15 +172,15 @@
     <t>September 25, 2001</t>
   </si>
   <si>
+    <t>March 31, 2001</t>
+  </si>
+  <si>
     <t>August 27, 1999</t>
   </si>
   <si>
     <t>November 11, 1999</t>
   </si>
   <si>
-    <t>March 31, 2001</t>
-  </si>
-  <si>
     <t>ba</t>
   </si>
   <si>
@@ -286,13 +286,13 @@
     <t>https://www.basketball-reference.com/players/c/cunnica01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/rhodeja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/boehebu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
   </si>
 </sst>
 </file>
@@ -1155,19 +1155,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1176,10 +1176,10 @@
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>90</v>
@@ -1190,19 +1190,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1214,7 +1214,7 @@
         <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>91</v>
@@ -1224,17 +1224,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -1243,10 +1246,10 @@
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>92</v>

--- a/rosters/2023/Detroit/Detroit.xlsx
+++ b/rosters/2023/Detroit/Detroit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -46,27 +46,27 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
     <t>Bojan Bogdanović</t>
   </si>
   <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
+    <t>Hamidou Diallo</t>
   </si>
   <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Hamidou Diallo</t>
+    <t>Alec Burks</t>
   </si>
   <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
     <t>Cory Joseph</t>
   </si>
   <si>
@@ -79,51 +79,57 @@
     <t>Rodney McGruder</t>
   </si>
   <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
     <t>James Wiseman</t>
   </si>
   <si>
+    <t>R.J. Hampton</t>
+  </si>
+  <si>
+    <t>Eugene Omoruyi</t>
+  </si>
+  <si>
     <t>Jared Rhoden (TW)</t>
   </si>
   <si>
     <t>Buddy Boeheim (TW)</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -133,27 +139,27 @@
     <t>7-0</t>
   </si>
   <si>
+    <t>February 13, 2002</t>
+  </si>
+  <si>
+    <t>July 27, 2001</t>
+  </si>
+  <si>
     <t>April 18, 1989</t>
   </si>
   <si>
-    <t>February 13, 2002</t>
-  </si>
-  <si>
-    <t>July 27, 2001</t>
+    <t>July 31, 1998</t>
   </si>
   <si>
     <t>November 18, 2003</t>
   </si>
   <si>
-    <t>July 31, 1998</t>
+    <t>July 20, 1991</t>
   </si>
   <si>
     <t>May 22, 2001</t>
   </si>
   <si>
-    <t>July 20, 1991</t>
-  </si>
-  <si>
     <t>August 20, 1991</t>
   </si>
   <si>
@@ -166,39 +172,45 @@
     <t>July 29, 1991</t>
   </si>
   <si>
-    <t>April 10, 1994</t>
-  </si>
-  <si>
     <t>September 25, 2001</t>
   </si>
   <si>
     <t>March 31, 2001</t>
   </si>
   <si>
+    <t>February 7, 2001</t>
+  </si>
+  <si>
+    <t>February 14, 1997</t>
+  </si>
+  <si>
     <t>August 27, 1999</t>
   </si>
   <si>
     <t>November 11, 1999</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>ba</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>ca</t>
   </si>
   <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -214,18 +226,18 @@
     <t>Purdue</t>
   </si>
   <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>Kentucky</t>
+    <t>Colorado</t>
   </si>
   <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -241,33 +253,36 @@
     <t>Oklahoma State</t>
   </si>
   <si>
+    <t>Rutgers University, Oregon</t>
+  </si>
+  <si>
     <t>Seton Hall</t>
   </si>
   <si>
     <t>Syracuse</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/i/iveyja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/hayeski01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bogdabo02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/i/iveyja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hayeski01.html</t>
+    <t>https://www.basketball-reference.com/players/d/diallha01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/durenja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/diallha01.html</t>
+    <t>https://www.basketball-reference.com/players/b/burksal01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/stewais01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/burksal01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/josepco01.html</t>
   </si>
   <si>
@@ -280,13 +295,16 @@
     <t>https://www.basketball-reference.com/players/m/mcgruro01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/noelne01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/cunnica01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/hamptrj01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/o/omorueu01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/rhodeja01.html</t>
@@ -663,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,31 +724,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -738,34 +759,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -773,31 +791,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -805,34 +823,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -840,34 +858,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -875,34 +893,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -910,34 +928,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -954,25 +972,25 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -986,28 +1004,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1021,28 +1039,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1059,25 +1077,25 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1085,34 +1103,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1120,34 +1138,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1155,34 +1173,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
         <v>63</v>
       </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1190,34 +1205,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1225,34 +1240,69 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>210</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
         <v>205</v>
       </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>92</v>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1273,6 +1323,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Detroit/Detroit.xlsx
+++ b/rosters/2023/Detroit/Detroit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>No.</t>
   </si>
@@ -46,19 +46,22 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
     <t>Bojan Bogdanović</t>
   </si>
   <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Hamidou Diallo</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
+    <t>Cory Joseph</t>
   </si>
   <si>
     <t>Alec Burks</t>
@@ -67,9 +70,6 @@
     <t>Isaiah Stewart</t>
   </si>
   <si>
-    <t>Cory Joseph</t>
-  </si>
-  <si>
     <t>Isaiah Livers</t>
   </si>
   <si>
@@ -79,79 +79,76 @@
     <t>Rodney McGruder</t>
   </si>
   <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
     <t>R.J. Hampton</t>
   </si>
   <si>
-    <t>Eugene Omoruyi</t>
-  </si>
-  <si>
     <t>Jared Rhoden (TW)</t>
   </si>
   <si>
     <t>Buddy Boeheim (TW)</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>6-5</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
     <t>6-10</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
     <t>7-0</t>
   </si>
   <si>
+    <t>July 27, 2001</t>
+  </si>
+  <si>
     <t>February 13, 2002</t>
   </si>
   <si>
-    <t>July 27, 2001</t>
-  </si>
-  <si>
     <t>April 18, 1989</t>
   </si>
   <si>
+    <t>November 18, 2003</t>
+  </si>
+  <si>
     <t>July 31, 1998</t>
   </si>
   <si>
-    <t>November 18, 2003</t>
+    <t>August 20, 1991</t>
   </si>
   <si>
     <t>July 20, 1991</t>
@@ -160,9 +157,6 @@
     <t>May 22, 2001</t>
   </si>
   <si>
-    <t>August 20, 1991</t>
-  </si>
-  <si>
     <t>July 28, 1998</t>
   </si>
   <si>
@@ -172,18 +166,15 @@
     <t>July 29, 1991</t>
   </si>
   <si>
+    <t>March 31, 2001</t>
+  </si>
+  <si>
     <t>September 25, 2001</t>
   </si>
   <si>
-    <t>March 31, 2001</t>
-  </si>
-  <si>
     <t>February 7, 2001</t>
   </si>
   <si>
-    <t>February 14, 1997</t>
-  </si>
-  <si>
     <t>August 27, 1999</t>
   </si>
   <si>
@@ -199,15 +190,12 @@
     <t>ca</t>
   </si>
   <si>
-    <t>ng</t>
+    <t>2</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -226,10 +214,13 @@
     <t>Purdue</t>
   </si>
   <si>
+    <t>Memphis</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Memphis</t>
+    <t>Texas</t>
   </si>
   <si>
     <t>Colorado</t>
@@ -238,9 +229,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
@@ -253,28 +241,28 @@
     <t>Oklahoma State</t>
   </si>
   <si>
-    <t>Rutgers University, Oregon</t>
-  </si>
-  <si>
     <t>Seton Hall</t>
   </si>
   <si>
     <t>Syracuse</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hayeski01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/i/iveyja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hayeski01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bogdabo02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/durenja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/diallha01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/durenja01.html</t>
+    <t>https://www.basketball-reference.com/players/j/josepco01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/burksal01.html</t>
@@ -283,9 +271,6 @@
     <t>https://www.basketball-reference.com/players/s/stewais01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/josepco01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/liveris01.html</t>
   </si>
   <si>
@@ -295,16 +280,13 @@
     <t>https://www.basketball-reference.com/players/m/mcgruro01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/cunnica01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hamptrj01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/o/omorueu01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/rhodeja01.html</t>
@@ -681,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,34 +706,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -759,31 +738,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -797,25 +779,25 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -823,34 +805,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -858,34 +840,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -893,34 +875,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -928,34 +910,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -963,34 +945,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1004,28 +986,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,28 +1021,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,25 +1059,25 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1103,34 +1085,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1138,34 +1120,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1179,25 +1161,25 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1205,34 +1187,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1240,69 +1222,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18">
-        <v>205</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1270,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Detroit/Detroit.xlsx
+++ b/rosters/2023/Detroit/Detroit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -52,16 +52,19 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Cory Joseph</t>
+  </si>
+  <si>
     <t>Bojan Bogdanović</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
     <t>Hamidou Diallo</t>
   </si>
   <si>
-    <t>Cory Joseph</t>
+    <t>Isaiah Livers</t>
   </si>
   <si>
     <t>Alec Burks</t>
@@ -70,9 +73,6 @@
     <t>Isaiah Stewart</t>
   </si>
   <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
@@ -82,15 +82,18 @@
     <t>James Wiseman</t>
   </si>
   <si>
+    <t>R.J. Hampton</t>
+  </si>
+  <si>
+    <t>Eugene Omoruyi</t>
+  </si>
+  <si>
+    <t>Jared Rhoden (TW)</t>
+  </si>
+  <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
-    <t>R.J. Hampton</t>
-  </si>
-  <si>
-    <t>Jared Rhoden (TW)</t>
-  </si>
-  <si>
     <t>Buddy Boeheim (TW)</t>
   </si>
   <si>
@@ -100,10 +103,13 @@
     <t>SG</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
+    <t>SF</t>
   </si>
   <si>
     <t>6-5</t>
@@ -112,15 +118,15 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
@@ -139,16 +145,19 @@
     <t>February 13, 2002</t>
   </si>
   <si>
+    <t>November 18, 2003</t>
+  </si>
+  <si>
+    <t>August 20, 1991</t>
+  </si>
+  <si>
     <t>April 18, 1989</t>
   </si>
   <si>
-    <t>November 18, 2003</t>
-  </si>
-  <si>
     <t>July 31, 1998</t>
   </si>
   <si>
-    <t>August 20, 1991</t>
+    <t>July 28, 1998</t>
   </si>
   <si>
     <t>July 20, 1991</t>
@@ -157,9 +166,6 @@
     <t>May 22, 2001</t>
   </si>
   <si>
-    <t>July 28, 1998</t>
-  </si>
-  <si>
     <t>March 14, 1999</t>
   </si>
   <si>
@@ -169,25 +175,31 @@
     <t>March 31, 2001</t>
   </si>
   <si>
+    <t>February 7, 2001</t>
+  </si>
+  <si>
+    <t>February 14, 1997</t>
+  </si>
+  <si>
+    <t>August 27, 1999</t>
+  </si>
+  <si>
     <t>September 25, 2001</t>
   </si>
   <si>
-    <t>February 7, 2001</t>
-  </si>
-  <si>
-    <t>August 27, 1999</t>
-  </si>
-  <si>
     <t>November 11, 1999</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>ca</t>
+  </si>
+  <si>
     <t>ba</t>
   </si>
   <si>
-    <t>ca</t>
+    <t>ng</t>
   </si>
   <si>
     <t>2</t>
@@ -196,15 +208,15 @@
     <t>R</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -217,10 +229,13 @@
     <t>Memphis</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Texas</t>
+    <t>Michigan</t>
   </si>
   <si>
     <t>Colorado</t>
@@ -229,21 +244,21 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
     <t>Kansas State</t>
   </si>
   <si>
+    <t>Rutgers University, Oregon</t>
+  </si>
+  <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
     <t>Oklahoma State</t>
   </si>
   <si>
-    <t>Seton Hall</t>
-  </si>
-  <si>
     <t>Syracuse</t>
   </si>
   <si>
@@ -253,16 +268,19 @@
     <t>https://www.basketball-reference.com/players/i/iveyja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/durenja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/josepco01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bogdabo02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/durenja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/diallha01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/josepco01.html</t>
+    <t>https://www.basketball-reference.com/players/l/liveris01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/burksal01.html</t>
@@ -271,9 +289,6 @@
     <t>https://www.basketball-reference.com/players/s/stewais01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/liveris01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/baglema01.html</t>
   </si>
   <si>
@@ -283,13 +298,16 @@
     <t>https://www.basketball-reference.com/players/w/wisemja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hamptrj01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/o/omorueu01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/rhodeja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/cunnica01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hamptrj01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/rhodeja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/boehebu01.html</t>
@@ -663,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,25 +730,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -744,28 +762,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -773,31 +791,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -805,34 +826,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -840,34 +861,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -875,34 +893,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -910,34 +928,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -945,34 +963,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -980,34 +998,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1024,25 +1042,25 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1056,28 +1074,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1094,25 +1112,25 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1120,34 +1138,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1155,31 +1170,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1193,28 +1211,28 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>210</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1222,34 +1240,69 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>220</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
         <v>205</v>
       </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>92</v>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1270,6 +1323,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
